--- a/data/trans_dic/P6907S1-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6907S1-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P6907S1-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6907S1-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,04%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>2,25; 20,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>1,53; 13,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>0,0; 18,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>0,0; 15,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>0,0; 19,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>1,09; 26,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>2,62; 15,15</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>2,04; 12,94</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>1,55; 15,76</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>8,13%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3,9%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3,81%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9,15%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5,99%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6,15%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,07%</t>
         </is>
       </c>
     </row>
@@ -864,32 +864,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>2,62; 20,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>0,0; 28,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>1,23; 10,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>2,74; 24,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>0,0; 21,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>0,0; 26,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,27 +899,27 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>1,62; 13,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>2,95; 15,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>0,0; 15,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,6</t>
+          <t>0,8; 6,75</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>3,2; 15,88</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>10,68%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8,59%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4,07%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>14,68%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9,19%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,96%</t>
         </is>
       </c>
     </row>
@@ -1004,27 +1004,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>2,75; 24,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>0,0; 42,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>0,0; 17,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>7,24; 26,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>0,0; 27,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1034,32 +1034,32 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>0,0; 35,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>9,61; 26,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>3,52; 20,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>0,0; 28,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>0,0; 18,46</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,55</t>
+          <t>9,91; 22,67</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>6,75%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7,54%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2,77%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11,84%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8,94%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4,33%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,62%</t>
         </is>
       </c>
     </row>
@@ -1144,32 +1144,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>1,68; 17,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>0,0; 22,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>0,0; 14,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>0,0; 37,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>0,0; 30,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>0,0; 19,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,27 +1179,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>0,0; 7,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>2,62; 14,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>1,79; 17,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>0,0; 5,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>0,92; 17,77</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>12,35%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19,25%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,95%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>28,61%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16,13%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10,35%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,82%</t>
         </is>
       </c>
     </row>
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>3,7; 29,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>0,0; 51,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>0,0; 12,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0,0; 71,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1324,12 +1324,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>6,12; 33,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>0,0; 32,41</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>0,0; 8,74</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>14,24%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8,64%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>25,31%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7,03%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5,64%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>12,42%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,51%</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>4,9; 29,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1434,17 +1434,17 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>0,0; 26,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>12,46; 41,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>0,0; 28,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>1,52; 15,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>4,91; 25,15</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>0,0; 19,81</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>8,06; 24,96</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>12,1%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,96%</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>6,12; 21,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1574,52 +1574,52 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>0,0; 9,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>8,92; 26,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>5,18; 27,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>0,0; 14,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>0,0; 11,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>10,18; 29,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,5</t>
+          <t>7,4; 20,52</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>0,0; 9,07</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>0,77; 7,4</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>11,34; 24,37</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>5,91%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8,95%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>14,83%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="I18" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3,3%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8,71%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5,64%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,65%</t>
         </is>
       </c>
     </row>
@@ -1704,12 +1704,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,73</t>
+          <t>2,6; 11,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>0,0; 28,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>6,36; 28,61</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1739,17 +1739,17 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>0,0; 12,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>4,94; 14,09</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>0,0; 17,76</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,51</t>
+          <t>0,0; 6,57</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,64%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>6,61; 12,37</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>2,62; 10,34</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>1,74; 5,74</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>7,53; 15,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>7,03; 15,42</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 2,02</t>
+          <t>0,88; 7,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,81; 5,23</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>6,24; 11,87</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>7,72; 12,25</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>2,42; 7,88</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,91; 4,95</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>7,43; 12,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6907S1-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6907S1-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>5,8%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 23,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,66</t>
+          <t>0,0; 17,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 13,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 26,2</t>
+          <t>1,09; 26,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,99</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 15,76</t>
+          <t>1,41; 15,24</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>6,98%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,74; 24,48</t>
+          <t>2,54; 24,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 13,72</t>
+          <t>1,6; 13,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,2; 15,88</t>
+          <t>3,09; 15,95</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>15,83%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,24; 26,38</t>
+          <t>7,17; 26,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,61; 26,93</t>
+          <t>9,56; 26,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,91; 22,67</t>
+          <t>9,78; 22,55</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>4,4%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,43</t>
+          <t>0,0; 45,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,29</t>
+          <t>0,0; 36,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,43</t>
+          <t>0,0; 50,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,11</t>
+          <t>0,0; 6,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 17,2</t>
+          <t>0,0; 42,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 17,77</t>
+          <t>0,63; 16,32</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,81%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,78</t>
+          <t>0,0; 12,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,74</t>
+          <t>0,0; 8,72</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25,31%</t>
+          <t>25,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>15,76%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,46; 41,17</t>
+          <t>12,67; 41,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,52; 15,33</t>
+          <t>1,51; 15,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,06; 24,96</t>
+          <t>8,16; 25,5</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>17,03%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,92; 26,62</t>
+          <t>8,89; 26,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,18; 29,1</t>
+          <t>10,1; 29,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,34; 24,37</t>
+          <t>11,44; 24,44</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,55%</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,58</t>
+          <t>0,0; 11,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,57</t>
+          <t>0,0; 5,9</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>9,46%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,53; 15,07</t>
+          <t>7,61; 15,13</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,24; 11,87</t>
+          <t>5,37; 11,36</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>7,43; 12,08</t>
+          <t>7,17; 12,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6907S1-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6907S1-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,27 +725,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 20,5</t>
+          <t>2,27; 20,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,38</t>
+          <t>0,0; 22,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 13,43</t>
+          <t>1,54; 14,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,75</t>
+          <t>0,0; 17,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,52</t>
+          <t>0,0; 18,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,39 +755,39 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,45</t>
+          <t>0,0; 18,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 26,81</t>
+          <t>1,01; 26,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,62; 15,15</t>
+          <t>2,68; 15,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,99</t>
+          <t>0,0; 14,89</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 12,94</t>
+          <t>1,89; 12,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,41; 15,24</t>
+          <t>1,68; 14,96</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,32 +865,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,62; 20,13</t>
+          <t>2,61; 19,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,68</t>
+          <t>0,0; 24,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 10,29</t>
+          <t>1,21; 10,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,54; 24,1</t>
+          <t>0,0; 21,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,04</t>
+          <t>0,0; 20,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,0</t>
+          <t>0,0; 25,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,12 +900,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 13,56</t>
+          <t>1,6; 13,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 15,13</t>
+          <t>2,9; 15,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,19 +915,19 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 6,75</t>
+          <t>0,8; 6,77</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,09; 15,95</t>
+          <t>2,63; 13,98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,27 +1005,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 24,13</t>
+          <t>2,65; 24,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,59</t>
+          <t>0,0; 34,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,16</t>
+          <t>0,0; 21,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,17; 26,31</t>
+          <t>7,29; 26,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,7</t>
+          <t>0,0; 29,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1034,32 +1035,32 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,88</t>
+          <t>0,0; 28,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,56; 26,78</t>
+          <t>9,81; 28,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 20,34</t>
+          <t>3,43; 20,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,13</t>
+          <t>0,0; 28,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,46</t>
+          <t>0,0; 14,29</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,78; 22,55</t>
+          <t>10,21; 23,6</t>
         </is>
       </c>
     </row>
@@ -1144,32 +1145,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 17,29</t>
+          <t>1,79; 16,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,52</t>
+          <t>0,0; 56,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,86</t>
+          <t>0,0; 14,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,85</t>
+          <t>0,0; 39,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,99</t>
+          <t>0,0; 29,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,0</t>
+          <t>0,0; 63,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,27 +1180,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,13</t>
+          <t>0,0; 5,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 14,01</t>
+          <t>3,17; 15,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,58</t>
+          <t>0,0; 33,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,97</t>
+          <t>0,0; 7,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 16,32</t>
+          <t>0,6; 15,54</t>
         </is>
       </c>
     </row>
@@ -1284,12 +1285,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,7; 29,9</t>
+          <t>3,84; 33,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,68</t>
+          <t>0,0; 58,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,12 +1300,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,69</t>
+          <t>0,0; 15,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,48</t>
+          <t>0,0; 71,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1324,12 +1325,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,12; 33,06</t>
+          <t>6,2; 33,03</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,41</t>
+          <t>0,0; 35,57</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,14 +1340,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,72</t>
+          <t>0,0; 10,76</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,7 +1425,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,9; 29,28</t>
+          <t>4,98; 29,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1434,17 +1435,17 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,75</t>
+          <t>0,0; 25,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,67; 41,34</t>
+          <t>13,36; 42,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,65</t>
+          <t>0,0; 36,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1459,12 +1460,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,51; 15,23</t>
+          <t>1,51; 14,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,91; 25,15</t>
+          <t>5,06; 22,88</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,19 +1475,19 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,81</t>
+          <t>0,0; 19,49</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,16; 25,5</t>
+          <t>8,44; 25,09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,7 +1565,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,12; 21,48</t>
+          <t>6,25; 22,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1574,52 +1575,52 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,59</t>
+          <t>0,0; 10,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,89; 26,35</t>
+          <t>8,91; 26,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,18; 27,54</t>
+          <t>6,48; 28,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,14</t>
+          <t>0,0; 14,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,14</t>
+          <t>0,0; 12,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,1; 29,58</t>
+          <t>10,28; 30,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,4; 20,52</t>
+          <t>7,61; 19,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,07</t>
+          <t>0,0; 9,66</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,4</t>
+          <t>0,82; 7,17</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,44; 24,44</t>
+          <t>11,03; 24,83</t>
         </is>
       </c>
     </row>
@@ -1704,12 +1705,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,6; 11,17</t>
+          <t>2,59; 11,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,56</t>
+          <t>0,0; 28,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1724,7 +1725,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,36; 28,61</t>
+          <t>6,2; 26,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1739,17 +1740,17 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,69</t>
+          <t>0,0; 10,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,94; 14,09</t>
+          <t>4,99; 13,94</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,76</t>
+          <t>0,0; 19,16</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1759,7 +1760,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,9</t>
+          <t>0,0; 5,54</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,61; 12,37</t>
+          <t>6,64; 12,13</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,62; 10,34</t>
+          <t>2,68; 9,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,74</t>
+          <t>1,95; 6,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,61; 15,13</t>
+          <t>7,88; 15,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,03; 15,42</t>
+          <t>7,33; 15,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,51</t>
+          <t>0,9; 7,73</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,81; 5,23</t>
+          <t>0,87; 5,44</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,37; 11,36</t>
+          <t>5,42; 11,59</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,72; 12,25</t>
+          <t>7,54; 12,22</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,88</t>
+          <t>2,34; 7,57</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,95</t>
+          <t>1,9; 4,76</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>7,17; 12,0</t>
+          <t>7,13; 12,05</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que tiene algún otro problema</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3842</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3108</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1073</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2566</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1470</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>4916</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5674</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2312</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>973; 8639</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3609</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>902; 8273</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4230</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5283</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1909</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7729</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>159; 4134</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1917; 10837</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4495</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1876; 12461</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>668; 5957</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5887</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3153</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4103</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2299</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7846</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3153</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6401</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1893; 13844</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6042</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1000; 8694</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10172</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6666</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4198</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1942</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>728; 6153</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3045; 15922</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6100</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1008; 8496</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2416; 12822</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3912</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>815</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7882</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5908</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1680</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>15110</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>972; 9009</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4074</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4514</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3607; 13183</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6433</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1614</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3581</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4507; 13033</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2003; 11884</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5045</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4824</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9746; 22520</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3934</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1041</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>4556</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>904</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>766</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5963</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>5322</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1046; 9559</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5086</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4642</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 16039</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6618</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4271</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1902</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4061</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2568; 12399</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5323</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4589</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>731; 18807</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2834</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4828</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>882; 7747</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5982</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2006</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2733</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5017</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1823</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1525</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 722</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1856; 9884</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6757</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1960</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3093</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5955</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>8050</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>991</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>6946</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>9744</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2084; 12134</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1803</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5775</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>4222; 13334</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5102</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1558</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1727</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>455; 4489</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2830; 12788</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1811</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5820</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>5220; 15513</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>10705</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2241</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>11477</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>6199</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1953</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>12996</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>16904</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>4194</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>24473</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>5528; 19992</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1904</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 8475</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>6523; 19297</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2822; 12365</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4143</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 7166</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>7252; 21213</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>10044; 26206</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5240</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1102; 9605</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>15853; 35687</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>6438</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>7386</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1731</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>13823</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1731</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2824; 12743</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6451</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1974</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1873</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>3087; 13047</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1919</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1936</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5944</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>7917; 22118</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6853</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2002</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6176</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>43508</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>7827</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>12203</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>36776</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>23625</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>2849</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>5334</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>28837</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>67134</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>10676</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>17538</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>65613</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>31374; 57283</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>3828; 13864</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>6822; 21090</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>26759; 51294</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>16145; 34298</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>901; 7739</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1873; 11770</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>19193; 41055</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>52223; 84638</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>5690; 18377</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>10744; 26956</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>49477; 83611</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>